--- a/SG_Mvn_Project/TestData/UserModule.xlsx
+++ b/SG_Mvn_Project/TestData/UserModule.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MorningBatch_Combined\SG_Maven_Framework\SG_Mvn_Project\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MorningBatch_Combined\FinalFramework\CombinedBatch\SG_Mvn_Project\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DBE013-F17A-49FE-BF1F-E98EED0F5D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABB0664-B3DA-4C29-9234-31F6663B66FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>LogicalName</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>Welcome@1</t>
+  </si>
+  <si>
+    <t>manager1</t>
   </si>
 </sst>
 </file>
@@ -436,7 +439,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -493,7 +496,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2"/>
       <c r="I2" s="2"/>

--- a/SG_Mvn_Project/TestData/UserModule.xlsx
+++ b/SG_Mvn_Project/TestData/UserModule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MorningBatch_Combined\FinalFramework\CombinedBatch\SG_Mvn_Project\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABB0664-B3DA-4C29-9234-31F6663B66FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6240EC9C-3D6B-403F-8322-75CA6BCD7DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>LogicalName</t>
   </si>
@@ -106,9 +106,6 @@
   </si>
   <si>
     <t>Welcome@1</t>
-  </si>
-  <si>
-    <t>manager1</t>
   </si>
 </sst>
 </file>
@@ -496,7 +493,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G2" s="2"/>
       <c r="I2" s="2"/>
